--- a/gov_data_org_puuttuneetLaskettuMuuttujittain.xlsx
+++ b/gov_data_org_puuttuneetLaskettuMuuttujittain.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="199">
   <si>
     <t>rq1b_1_mean</t>
   </si>
@@ -751,7 +751,18 @@
     <cellStyle name="style1450084162042" xfId="3"/>
     <cellStyle name="style1450086165348" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1085,15 +1096,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD72"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:BD72"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM73" sqref="AM73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
@@ -13005,7 +13017,179 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
+        <v>11</v>
+      </c>
+      <c r="P73" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73" t="s">
+        <v>43</v>
+      </c>
+      <c r="S73" t="s">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s">
+        <v>46</v>
+      </c>
+      <c r="V73" t="s">
+        <v>47</v>
+      </c>
+      <c r="W73" t="s">
+        <v>48</v>
+      </c>
+      <c r="X73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f>COUNTIF(D72:BD72,0)</f>
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D72:BD72">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -13016,8 +13200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
